--- a/docs/Getana_Deliverable_2_SprintBacklog_2.xlsx
+++ b/docs/Getana_Deliverable_2_SprintBacklog_2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="86">
   <si>
     <t>SPRINT BACKLOG — Deliverable 1</t>
   </si>
@@ -253,6 +253,36 @@
   </si>
   <si>
     <t>55, Create GRL and UCM Models Document</t>
+  </si>
+  <si>
+    <t>56, Create user interface for creating a schedule, adding classes, and saving a schedule</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>57, Create user interface for recalling schedules, schedule selection, and detail display</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>58, Implement backend functionality for saving and recalling saved schedules</t>
+  </si>
+  <si>
+    <t>59, Implement data structure for mapping building prefixes to physical addresses</t>
+  </si>
+  <si>
+    <t>60, Implement driver code to utilize google maps API to generate route from provided schedule detail</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>61, Implement front end for route display after API calls to generate route</t>
   </si>
 </sst>
 </file>
@@ -302,11 +332,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,15 +1334,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="58.1640625" customWidth="1"/>
+    <col min="1" max="1" width="110.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.5"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="11.5"/>
@@ -1606,6 +1639,91 @@
         <v>6</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
